--- a/ols9.xlsx
+++ b/ols9.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="141" uniqueCount="141">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="112">
   <si>
     <t xml:space="preserve"/>
   </si>
@@ -32,10 +32,10 @@
     <t xml:space="preserve">poly(LFund_StageHHI, 2)2</t>
   </si>
   <si>
-    <t xml:space="preserve">poly(LFund_PISHHI, 2)1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">poly(LFund_PISHHI, 2)2</t>
+    <t xml:space="preserve">poly(LFund_PIGHHI, 2)1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">poly(LFund_PIGHHI, 2)2</t>
   </si>
   <si>
     <t xml:space="preserve">LNumber_Investments</t>
@@ -131,97 +131,49 @@
     <t xml:space="preserve">as.factor(Deal_Year)2012</t>
   </si>
   <si>
-    <t xml:space="preserve">as.factor(Fund_ID)2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">as.factor(Fund_ID)3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">as.factor(Fund_ID)6</t>
-  </si>
-  <si>
-    <t xml:space="preserve">as.factor(Fund_ID)7</t>
-  </si>
-  <si>
-    <t xml:space="preserve">as.factor(Fund_ID)8</t>
-  </si>
-  <si>
-    <t xml:space="preserve">as.factor(Fund_ID)9</t>
-  </si>
-  <si>
-    <t xml:space="preserve">as.factor(Fund_ID)10</t>
-  </si>
-  <si>
-    <t xml:space="preserve">as.factor(Fund_ID)11</t>
-  </si>
-  <si>
-    <t xml:space="preserve">as.factor(Fund_ID)12</t>
-  </si>
-  <si>
-    <t xml:space="preserve">as.factor(Fund_ID)13</t>
-  </si>
-  <si>
-    <t xml:space="preserve">as.factor(Fund_ID)15</t>
-  </si>
-  <si>
-    <t xml:space="preserve">as.factor(Fund_ID)16</t>
-  </si>
-  <si>
-    <t xml:space="preserve">as.factor(Fund_ID)17</t>
-  </si>
-  <si>
-    <t xml:space="preserve">as.factor(Fund_ID)19</t>
-  </si>
-  <si>
-    <t xml:space="preserve">as.factor(Fund_ID)21</t>
-  </si>
-  <si>
-    <t xml:space="preserve">as.factor(Fund_ID)22</t>
-  </si>
-  <si>
-    <t xml:space="preserve">as.factor(Fund_ID)24</t>
-  </si>
-  <si>
-    <t xml:space="preserve">as.factor(Fund_ID)26</t>
-  </si>
-  <si>
-    <t xml:space="preserve">as.factor(Fund_ID)27</t>
-  </si>
-  <si>
-    <t xml:space="preserve">as.factor(Fund_ID)28</t>
-  </si>
-  <si>
-    <t xml:space="preserve">as.factor(Fund_ID)30</t>
-  </si>
-  <si>
-    <t xml:space="preserve">as.factor(Fund_ID)31</t>
-  </si>
-  <si>
-    <t xml:space="preserve">as.factor(Fund_ID)33</t>
-  </si>
-  <si>
-    <t xml:space="preserve">as.factor(Fund_ID)34</t>
-  </si>
-  <si>
-    <t xml:space="preserve">as.factor(Fund_ID)37</t>
-  </si>
-  <si>
-    <t xml:space="preserve">as.factor(Fund_ID)39</t>
-  </si>
-  <si>
-    <t xml:space="preserve">as.factor(Fund_ID)41</t>
-  </si>
-  <si>
-    <t xml:space="preserve">as.factor(Fund_ID)42</t>
-  </si>
-  <si>
-    <t xml:space="preserve">as.factor(Fund_ID)43</t>
-  </si>
-  <si>
-    <t xml:space="preserve">as.factor(Fund_ID)44</t>
-  </si>
-  <si>
-    <t xml:space="preserve">as.factor(Fund_ID)45</t>
+    <t xml:space="preserve">as.factor(Company_Country)China</t>
+  </si>
+  <si>
+    <t xml:space="preserve">as.factor(Company_Country)Czech Republic</t>
+  </si>
+  <si>
+    <t xml:space="preserve">as.factor(Company_Country)Denmark</t>
+  </si>
+  <si>
+    <t xml:space="preserve">as.factor(Company_Country)France</t>
+  </si>
+  <si>
+    <t xml:space="preserve">as.factor(Company_Country)Germany</t>
+  </si>
+  <si>
+    <t xml:space="preserve">as.factor(Company_Country)Hungary</t>
+  </si>
+  <si>
+    <t xml:space="preserve">as.factor(Company_Country)India</t>
+  </si>
+  <si>
+    <t xml:space="preserve">as.factor(Company_Country)Ireland</t>
+  </si>
+  <si>
+    <t xml:space="preserve">as.factor(Company_Country)Japan</t>
+  </si>
+  <si>
+    <t xml:space="preserve">as.factor(Company_Country)Netherlands</t>
+  </si>
+  <si>
+    <t xml:space="preserve">as.factor(Company_Country)Spain</t>
+  </si>
+  <si>
+    <t xml:space="preserve">as.factor(Company_Country)Sweden</t>
+  </si>
+  <si>
+    <t xml:space="preserve">as.factor(Company_Country)Switzerland</t>
+  </si>
+  <si>
+    <t xml:space="preserve">as.factor(Company_Country)United Kingdom</t>
+  </si>
+  <si>
+    <t xml:space="preserve">as.factor(Company_Country)United States</t>
   </si>
   <si>
     <t xml:space="preserve"># observations</t>
@@ -245,203 +197,164 @@
     <t xml:space="preserve">(1)</t>
   </si>
   <si>
-    <t xml:space="preserve">(4.689)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">(5.511)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">(5.893)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">(12.800)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">(15.006)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">(18.840)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">(15.568)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">(1.659)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">(0.001)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">(1.529)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">(1.244)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">(1.018)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">(0.976)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">(0.975)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">(0.971)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">(0.942)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">(0.940)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">(0.925)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">(0.926)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">(0.911)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">(0.901)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">(0.894)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">(0.902)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">(0.916)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">(0.927)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">(0.922)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">(0.918)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">(0.970)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">(0.989)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">(1.095)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">(1.033)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">(1.261)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">(1.064)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">(3.458)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">(1.009)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">(1.186)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">(2.109)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">(4.417)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">(1.223)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">(0.935)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">(1.087)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">(1.172)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">(5.025)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">(1.338)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">(1.619)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">(2.115)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">(0.758)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">(0.867)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">(2.820)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">(2.138)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">(2.384)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">(3.316)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">(1.664)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">(1.265)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">(1.622)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">(2.718)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">(2.033)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">(2.789)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">(0.469)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">(1.249)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">(1.289)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">(1.010)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">(1.471)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">(2.191)</t>
+    <t xml:space="preserve">(1.202) </t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.643 *</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(1.807) </t>
+  </si>
+  <si>
+    <t xml:space="preserve">(1.534) </t>
+  </si>
+  <si>
+    <t xml:space="preserve">(1.483) </t>
+  </si>
+  <si>
+    <t xml:space="preserve">(1.426) </t>
+  </si>
+  <si>
+    <t xml:space="preserve">(1.937) </t>
+  </si>
+  <si>
+    <t xml:space="preserve">(1.502) </t>
+  </si>
+  <si>
+    <t xml:space="preserve">(0.089) </t>
+  </si>
+  <si>
+    <t xml:space="preserve">(0.001) </t>
+  </si>
+  <si>
+    <t xml:space="preserve">(1.526) </t>
+  </si>
+  <si>
+    <t xml:space="preserve">(1.248) </t>
+  </si>
+  <si>
+    <t xml:space="preserve">(1.006) </t>
+  </si>
+  <si>
+    <t xml:space="preserve">(0.974) </t>
+  </si>
+  <si>
+    <t xml:space="preserve">(0.972) </t>
+  </si>
+  <si>
+    <t xml:space="preserve">(0.967) </t>
+  </si>
+  <si>
+    <t xml:space="preserve">(0.945) </t>
+  </si>
+  <si>
+    <t xml:space="preserve">(0.965) </t>
+  </si>
+  <si>
+    <t xml:space="preserve">(0.938) </t>
+  </si>
+  <si>
+    <t xml:space="preserve">(0.927) </t>
+  </si>
+  <si>
+    <t xml:space="preserve">(0.924) </t>
+  </si>
+  <si>
+    <t xml:space="preserve">(0.914) </t>
+  </si>
+  <si>
+    <t xml:space="preserve">(0.905) </t>
+  </si>
+  <si>
+    <t xml:space="preserve">(0.898) </t>
+  </si>
+  <si>
+    <t xml:space="preserve">(0.906) </t>
+  </si>
+  <si>
+    <t xml:space="preserve">(0.918) </t>
+  </si>
+  <si>
+    <t xml:space="preserve">(0.931) </t>
+  </si>
+  <si>
+    <t xml:space="preserve">(0.978) </t>
+  </si>
+  <si>
+    <t xml:space="preserve">(0.970) </t>
+  </si>
+  <si>
+    <t xml:space="preserve">(0.982) </t>
+  </si>
+  <si>
+    <t xml:space="preserve">(1.085) </t>
+  </si>
+  <si>
+    <t xml:space="preserve">(1.041) </t>
+  </si>
+  <si>
+    <t xml:space="preserve">(1.294) </t>
+  </si>
+  <si>
+    <t xml:space="preserve">(1.251) </t>
+  </si>
+  <si>
+    <t xml:space="preserve">(1.054) </t>
+  </si>
+  <si>
+    <t xml:space="preserve">(0.875) </t>
+  </si>
+  <si>
+    <t xml:space="preserve">(1.470) </t>
+  </si>
+  <si>
+    <t xml:space="preserve">(1.192) </t>
+  </si>
+  <si>
+    <t xml:space="preserve">(0.987) </t>
+  </si>
+  <si>
+    <t xml:space="preserve">(0.882) </t>
+  </si>
+  <si>
+    <t xml:space="preserve">(1.487) </t>
+  </si>
+  <si>
+    <t xml:space="preserve">(1.069) </t>
+  </si>
+  <si>
+    <t xml:space="preserve">(1.469) </t>
+  </si>
+  <si>
+    <t xml:space="preserve">(1.181) </t>
+  </si>
+  <si>
+    <t xml:space="preserve">(1.193) </t>
+  </si>
+  <si>
+    <t xml:space="preserve">(1.478) </t>
+  </si>
+  <si>
+    <t xml:space="preserve">(0.903) </t>
+  </si>
+  <si>
+    <t xml:space="preserve">(0.798) </t>
+  </si>
+  <si>
+    <t xml:space="preserve">(0.740) </t>
+  </si>
+  <si>
+    <t xml:space="preserve">(2)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      </t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <numFmts count="142">
+  <numFmts count="221">
     <numFmt numFmtId="50000" formatCode="0.000"/>
     <numFmt numFmtId="50001" formatCode="0.000"/>
     <numFmt numFmtId="50002" formatCode="0.000"/>
@@ -584,6 +497,85 @@
     <numFmt numFmtId="50139" formatCode="0.000"/>
     <numFmt numFmtId="50140" formatCode="0.000"/>
     <numFmt numFmtId="50141" formatCode="0.000"/>
+    <numFmt numFmtId="50142" formatCode="0.000"/>
+    <numFmt numFmtId="50143" formatCode="0.000"/>
+    <numFmt numFmtId="50144" formatCode="0.000"/>
+    <numFmt numFmtId="50145" formatCode="0.000"/>
+    <numFmt numFmtId="50146" formatCode="0.000"/>
+    <numFmt numFmtId="50147" formatCode="0.000"/>
+    <numFmt numFmtId="50148" formatCode="0.000"/>
+    <numFmt numFmtId="50149" formatCode="0.000"/>
+    <numFmt numFmtId="50150" formatCode="0.000"/>
+    <numFmt numFmtId="50151" formatCode="0.000"/>
+    <numFmt numFmtId="50152" formatCode="0.000"/>
+    <numFmt numFmtId="50153" formatCode="0.000"/>
+    <numFmt numFmtId="50154" formatCode="0.000"/>
+    <numFmt numFmtId="50155" formatCode="0.000"/>
+    <numFmt numFmtId="50156" formatCode="0.000"/>
+    <numFmt numFmtId="50157" formatCode="0.000"/>
+    <numFmt numFmtId="50158" formatCode="0.000"/>
+    <numFmt numFmtId="50159" formatCode="0.000"/>
+    <numFmt numFmtId="50160" formatCode="0.000"/>
+    <numFmt numFmtId="50161" formatCode="0.000"/>
+    <numFmt numFmtId="50162" formatCode="0.000"/>
+    <numFmt numFmtId="50163" formatCode="0.000"/>
+    <numFmt numFmtId="50164" formatCode="0.000"/>
+    <numFmt numFmtId="50165" formatCode="0.000"/>
+    <numFmt numFmtId="50166" formatCode="0.000"/>
+    <numFmt numFmtId="50167" formatCode="0.000"/>
+    <numFmt numFmtId="50168" formatCode="0.000"/>
+    <numFmt numFmtId="50169" formatCode="0.000"/>
+    <numFmt numFmtId="50170" formatCode="0.000"/>
+    <numFmt numFmtId="50171" formatCode="0.000"/>
+    <numFmt numFmtId="50172" formatCode="0.000"/>
+    <numFmt numFmtId="50173" formatCode="0.000"/>
+    <numFmt numFmtId="50174" formatCode="0.000"/>
+    <numFmt numFmtId="50175" formatCode="0.000"/>
+    <numFmt numFmtId="50176" formatCode="0.000"/>
+    <numFmt numFmtId="50177" formatCode="0.000"/>
+    <numFmt numFmtId="50178" formatCode="0.000"/>
+    <numFmt numFmtId="50179" formatCode="0.000"/>
+    <numFmt numFmtId="50180" formatCode="0.000"/>
+    <numFmt numFmtId="50181" formatCode="0.000"/>
+    <numFmt numFmtId="50182" formatCode="0.000"/>
+    <numFmt numFmtId="50183" formatCode="0.000"/>
+    <numFmt numFmtId="50184" formatCode="0.000"/>
+    <numFmt numFmtId="50185" formatCode="0.000"/>
+    <numFmt numFmtId="50186" formatCode="0.000"/>
+    <numFmt numFmtId="50187" formatCode="0.000"/>
+    <numFmt numFmtId="50188" formatCode="0.000"/>
+    <numFmt numFmtId="50189" formatCode="0.000"/>
+    <numFmt numFmtId="50190" formatCode="0.000"/>
+    <numFmt numFmtId="50191" formatCode="0.000"/>
+    <numFmt numFmtId="50192" formatCode="0.000"/>
+    <numFmt numFmtId="50193" formatCode="0.000"/>
+    <numFmt numFmtId="50194" formatCode="0.000"/>
+    <numFmt numFmtId="50195" formatCode="0.000"/>
+    <numFmt numFmtId="50196" formatCode="0.000"/>
+    <numFmt numFmtId="50197" formatCode="0.000"/>
+    <numFmt numFmtId="50198" formatCode="0.000"/>
+    <numFmt numFmtId="50199" formatCode="0.000"/>
+    <numFmt numFmtId="50200" formatCode="0.000"/>
+    <numFmt numFmtId="50201" formatCode="0.000"/>
+    <numFmt numFmtId="50202" formatCode="0.000"/>
+    <numFmt numFmtId="50203" formatCode="0.000"/>
+    <numFmt numFmtId="50204" formatCode="0.000"/>
+    <numFmt numFmtId="50205" formatCode="0.000"/>
+    <numFmt numFmtId="50206" formatCode="0.000"/>
+    <numFmt numFmtId="50207" formatCode="0.000"/>
+    <numFmt numFmtId="50208" formatCode="0.000"/>
+    <numFmt numFmtId="50209" formatCode="0.000"/>
+    <numFmt numFmtId="50210" formatCode="0.000"/>
+    <numFmt numFmtId="50211" formatCode="0.000"/>
+    <numFmt numFmtId="50212" formatCode="0.000"/>
+    <numFmt numFmtId="50213" formatCode="0.000"/>
+    <numFmt numFmtId="50214" formatCode="0.000"/>
+    <numFmt numFmtId="50215" formatCode="0.000"/>
+    <numFmt numFmtId="50216" formatCode="0.000"/>
+    <numFmt numFmtId="50217" formatCode="0.000"/>
+    <numFmt numFmtId="50218" formatCode="0.000"/>
+    <numFmt numFmtId="50219" formatCode="0.000"/>
+    <numFmt numFmtId="50220" formatCode="0.000"/>
   </numFmts>
   <fonts count="2">
     <font>
@@ -689,7 +681,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="149">
+  <cellXfs count="228">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment textRotation="0" horizontal="center" vertical="top"/>
@@ -1021,7 +1013,10 @@
     <xf numFmtId="50104" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment textRotation="0" horizontal="right" vertical="top"/>
     </xf>
-    <xf numFmtId="50105" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="50105" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment textRotation="0" horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="2" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment textRotation="0" horizontal="right" vertical="top"/>
     </xf>
     <xf numFmtId="50106" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
@@ -1033,7 +1028,7 @@
     <xf numFmtId="50108" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment textRotation="0" horizontal="right" vertical="top"/>
     </xf>
-    <xf numFmtId="50109" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="50109" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment textRotation="0" horizontal="right" vertical="top"/>
     </xf>
     <xf numFmtId="50110" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
@@ -1117,10 +1112,7 @@
     <xf numFmtId="50136" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment textRotation="0" horizontal="right" vertical="top"/>
     </xf>
-    <xf numFmtId="50137" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment textRotation="0" horizontal="right" vertical="top"/>
-    </xf>
-    <xf numFmtId="2" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="50137" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment textRotation="0" horizontal="right" vertical="top"/>
     </xf>
     <xf numFmtId="50138" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
@@ -1132,7 +1124,244 @@
     <xf numFmtId="50140" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment textRotation="0" horizontal="right" vertical="top"/>
     </xf>
-    <xf numFmtId="50141" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="50141" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment textRotation="0" horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="50142" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment textRotation="0" horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="50143" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment textRotation="0" horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="50144" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment textRotation="0" horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="50145" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment textRotation="0" horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="50146" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment textRotation="0" horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="50147" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment textRotation="0" horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="50148" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment textRotation="0" horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="50149" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment textRotation="0" horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="50150" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment textRotation="0" horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="50151" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment textRotation="0" horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="50152" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment textRotation="0" horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="50153" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment textRotation="0" horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="50154" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment textRotation="0" horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="50155" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment textRotation="0" horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="50156" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment textRotation="0" horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="50157" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment textRotation="0" horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="50158" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment textRotation="0" horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="50159" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment textRotation="0" horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="50160" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment textRotation="0" horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="50161" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment textRotation="0" horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="50162" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment textRotation="0" horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="50163" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment textRotation="0" horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="50164" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment textRotation="0" horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="50165" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment textRotation="0" horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="50166" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment textRotation="0" horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="50167" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment textRotation="0" horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="50168" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment textRotation="0" horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="50169" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment textRotation="0" horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="50170" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment textRotation="0" horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="50171" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment textRotation="0" horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="50172" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment textRotation="0" horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="50173" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment textRotation="0" horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="50174" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment textRotation="0" horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="50175" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment textRotation="0" horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="50176" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment textRotation="0" horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="50177" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment textRotation="0" horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="50178" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment textRotation="0" horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="50179" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment textRotation="0" horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="50180" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment textRotation="0" horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="50181" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment textRotation="0" horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="50182" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment textRotation="0" horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="50183" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment textRotation="0" horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="50184" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment textRotation="0" horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="50185" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment textRotation="0" horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="50186" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment textRotation="0" horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="50187" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment textRotation="0" horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="50188" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment textRotation="0" horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="50189" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment textRotation="0" horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="50190" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment textRotation="0" horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="50191" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment textRotation="0" horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="50192" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment textRotation="0" horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="50193" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment textRotation="0" horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="50194" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment textRotation="0" horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="50195" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment textRotation="0" horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="50196" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment textRotation="0" horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="50197" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment textRotation="0" horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="50198" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment textRotation="0" horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="50199" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment textRotation="0" horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="50200" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment textRotation="0" horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="50201" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment textRotation="0" horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="50202" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment textRotation="0" horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="50203" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment textRotation="0" horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="50204" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment textRotation="0" horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="50205" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment textRotation="0" horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="50206" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment textRotation="0" horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="50207" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment textRotation="0" horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="50208" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment textRotation="0" horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="50209" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment textRotation="0" horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="50210" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment textRotation="0" horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="50211" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment textRotation="0" horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="50212" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment textRotation="0" horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="50213" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment textRotation="0" horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="50214" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment textRotation="0" horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="50215" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment textRotation="0" horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="50216" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment textRotation="0" horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="50217" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment textRotation="0" horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="50218" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment textRotation="0" horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="50219" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment textRotation="0" horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="50220" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment textRotation="0" horizontal="right" vertical="top"/>
     </xf>
   </cellXfs>
@@ -1433,7 +1662,10 @@
         <v>0</v>
       </c>
       <c r="B1" s="5" t="s">
-        <v>76</v>
+        <v>60</v>
+      </c>
+      <c r="C1" s="5" t="s">
+        <v>110</v>
       </c>
     </row>
     <row r="2">
@@ -1441,7 +1673,10 @@
         <v>1</v>
       </c>
       <c r="B2" s="6" t="n">
-        <v>0.139</v>
+        <v>-0.75</v>
+      </c>
+      <c r="C2" s="117" t="s">
+        <v>111</v>
       </c>
     </row>
     <row r="3">
@@ -1449,15 +1684,21 @@
         <v>0</v>
       </c>
       <c r="B3" s="7" t="s">
-        <v>77</v>
+        <v>61</v>
+      </c>
+      <c r="C3" s="118" t="s">
+        <v>111</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="8" t="n">
-        <v>-5.079</v>
+      <c r="B4" s="8" t="s">
+        <v>62</v>
+      </c>
+      <c r="C4" s="119" t="s">
+        <v>62</v>
       </c>
     </row>
     <row r="5">
@@ -1465,7 +1706,10 @@
         <v>0</v>
       </c>
       <c r="B5" s="9" t="s">
-        <v>78</v>
+        <v>63</v>
+      </c>
+      <c r="C5" s="120" t="s">
+        <v>63</v>
       </c>
     </row>
     <row r="6">
@@ -1473,7 +1717,10 @@
         <v>3</v>
       </c>
       <c r="B6" s="10" t="n">
-        <v>-2.387</v>
+        <v>0.713</v>
+      </c>
+      <c r="C6" s="121" t="n">
+        <v>0.713</v>
       </c>
     </row>
     <row r="7">
@@ -1481,7 +1728,10 @@
         <v>0</v>
       </c>
       <c r="B7" s="11" t="s">
-        <v>79</v>
+        <v>64</v>
+      </c>
+      <c r="C7" s="122" t="s">
+        <v>64</v>
       </c>
     </row>
     <row r="8">
@@ -1489,7 +1739,10 @@
         <v>4</v>
       </c>
       <c r="B8" s="12" t="n">
-        <v>-5.497</v>
+        <v>-0.355</v>
+      </c>
+      <c r="C8" s="123" t="n">
+        <v>-0.355</v>
       </c>
     </row>
     <row r="9">
@@ -1497,7 +1750,10 @@
         <v>0</v>
       </c>
       <c r="B9" s="13" t="s">
-        <v>80</v>
+        <v>65</v>
+      </c>
+      <c r="C9" s="124" t="s">
+        <v>65</v>
       </c>
     </row>
     <row r="10">
@@ -1505,7 +1761,10 @@
         <v>5</v>
       </c>
       <c r="B10" s="14" t="n">
-        <v>7.225</v>
+        <v>0.931</v>
+      </c>
+      <c r="C10" s="125" t="n">
+        <v>0.931</v>
       </c>
     </row>
     <row r="11">
@@ -1513,7 +1772,10 @@
         <v>0</v>
       </c>
       <c r="B11" s="15" t="s">
-        <v>81</v>
+        <v>66</v>
+      </c>
+      <c r="C11" s="126" t="s">
+        <v>66</v>
       </c>
     </row>
     <row r="12">
@@ -1521,7 +1783,10 @@
         <v>6</v>
       </c>
       <c r="B12" s="16" t="n">
-        <v>1.177</v>
+        <v>3.141</v>
+      </c>
+      <c r="C12" s="127" t="n">
+        <v>3.141</v>
       </c>
     </row>
     <row r="13">
@@ -1529,7 +1794,10 @@
         <v>0</v>
       </c>
       <c r="B13" s="17" t="s">
-        <v>82</v>
+        <v>67</v>
+      </c>
+      <c r="C13" s="128" t="s">
+        <v>67</v>
       </c>
     </row>
     <row r="14">
@@ -1537,7 +1805,10 @@
         <v>7</v>
       </c>
       <c r="B14" s="18" t="n">
-        <v>0.235</v>
+        <v>-1.048</v>
+      </c>
+      <c r="C14" s="129" t="n">
+        <v>-1.048</v>
       </c>
     </row>
     <row r="15">
@@ -1545,7 +1816,10 @@
         <v>0</v>
       </c>
       <c r="B15" s="19" t="s">
-        <v>83</v>
+        <v>68</v>
+      </c>
+      <c r="C15" s="130" t="s">
+        <v>68</v>
       </c>
     </row>
     <row r="16">
@@ -1553,7 +1827,10 @@
         <v>8</v>
       </c>
       <c r="B16" s="20" t="n">
-        <v>-0.495</v>
+        <v>0.164</v>
+      </c>
+      <c r="C16" s="131" t="n">
+        <v>0.164</v>
       </c>
     </row>
     <row r="17">
@@ -1561,7 +1838,10 @@
         <v>0</v>
       </c>
       <c r="B17" s="21" t="s">
-        <v>84</v>
+        <v>69</v>
+      </c>
+      <c r="C17" s="132" t="s">
+        <v>69</v>
       </c>
     </row>
     <row r="18">
@@ -1571,13 +1851,19 @@
       <c r="B18" s="22" t="n">
         <v>0</v>
       </c>
+      <c r="C18" s="133" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" s="2" t="s">
         <v>0</v>
       </c>
       <c r="B19" s="23" t="s">
-        <v>85</v>
+        <v>70</v>
+      </c>
+      <c r="C19" s="134" t="s">
+        <v>70</v>
       </c>
     </row>
     <row r="20">
@@ -1585,7 +1871,10 @@
         <v>10</v>
       </c>
       <c r="B20" s="24" t="n">
-        <v>-0.303</v>
+        <v>-0.387</v>
+      </c>
+      <c r="C20" s="135" t="s">
+        <v>111</v>
       </c>
     </row>
     <row r="21">
@@ -1593,7 +1882,10 @@
         <v>0</v>
       </c>
       <c r="B21" s="25" t="s">
-        <v>86</v>
+        <v>71</v>
+      </c>
+      <c r="C21" s="136" t="s">
+        <v>111</v>
       </c>
     </row>
     <row r="22">
@@ -1601,7 +1893,10 @@
         <v>11</v>
       </c>
       <c r="B22" s="26" t="n">
-        <v>-0.421</v>
+        <v>-0.437</v>
+      </c>
+      <c r="C22" s="137" t="s">
+        <v>111</v>
       </c>
     </row>
     <row r="23">
@@ -1609,7 +1904,10 @@
         <v>0</v>
       </c>
       <c r="B23" s="27" t="s">
-        <v>87</v>
+        <v>72</v>
+      </c>
+      <c r="C23" s="138" t="s">
+        <v>111</v>
       </c>
     </row>
     <row r="24">
@@ -1617,7 +1915,10 @@
         <v>12</v>
       </c>
       <c r="B24" s="28" t="n">
-        <v>-0.648</v>
+        <v>-0.732</v>
+      </c>
+      <c r="C24" s="139" t="s">
+        <v>111</v>
       </c>
     </row>
     <row r="25">
@@ -1625,7 +1926,10 @@
         <v>0</v>
       </c>
       <c r="B25" s="29" t="s">
-        <v>86</v>
+        <v>71</v>
+      </c>
+      <c r="C25" s="140" t="s">
+        <v>111</v>
       </c>
     </row>
     <row r="26">
@@ -1633,7 +1937,10 @@
         <v>13</v>
       </c>
       <c r="B26" s="30" t="n">
-        <v>0.082</v>
+        <v>-0.253</v>
+      </c>
+      <c r="C26" s="141" t="s">
+        <v>111</v>
       </c>
     </row>
     <row r="27">
@@ -1641,7 +1948,10 @@
         <v>0</v>
       </c>
       <c r="B27" s="31" t="s">
-        <v>88</v>
+        <v>73</v>
+      </c>
+      <c r="C27" s="142" t="s">
+        <v>111</v>
       </c>
     </row>
     <row r="28">
@@ -1649,7 +1959,10 @@
         <v>14</v>
       </c>
       <c r="B28" s="32" t="n">
-        <v>0.296</v>
+        <v>0.13</v>
+      </c>
+      <c r="C28" s="143" t="s">
+        <v>111</v>
       </c>
     </row>
     <row r="29">
@@ -1657,7 +1970,10 @@
         <v>0</v>
       </c>
       <c r="B29" s="33" t="s">
-        <v>89</v>
+        <v>74</v>
+      </c>
+      <c r="C29" s="144" t="s">
+        <v>111</v>
       </c>
     </row>
     <row r="30">
@@ -1665,7 +1981,10 @@
         <v>15</v>
       </c>
       <c r="B30" s="34" t="n">
-        <v>0.427</v>
+        <v>0.203</v>
+      </c>
+      <c r="C30" s="145" t="s">
+        <v>111</v>
       </c>
     </row>
     <row r="31">
@@ -1673,7 +1992,10 @@
         <v>0</v>
       </c>
       <c r="B31" s="35" t="s">
-        <v>90</v>
+        <v>75</v>
+      </c>
+      <c r="C31" s="146" t="s">
+        <v>111</v>
       </c>
     </row>
     <row r="32">
@@ -1681,7 +2003,10 @@
         <v>16</v>
       </c>
       <c r="B32" s="36" t="n">
-        <v>1.393</v>
+        <v>1.244</v>
+      </c>
+      <c r="C32" s="147" t="s">
+        <v>111</v>
       </c>
     </row>
     <row r="33">
@@ -1689,7 +2014,10 @@
         <v>0</v>
       </c>
       <c r="B33" s="37" t="s">
-        <v>91</v>
+        <v>76</v>
+      </c>
+      <c r="C33" s="148" t="s">
+        <v>111</v>
       </c>
     </row>
     <row r="34">
@@ -1697,7 +2025,10 @@
         <v>17</v>
       </c>
       <c r="B34" s="38" t="n">
-        <v>0.564</v>
+        <v>0.561</v>
+      </c>
+      <c r="C34" s="149" t="s">
+        <v>111</v>
       </c>
     </row>
     <row r="35">
@@ -1705,7 +2036,10 @@
         <v>0</v>
       </c>
       <c r="B35" s="39" t="s">
-        <v>92</v>
+        <v>77</v>
+      </c>
+      <c r="C35" s="150" t="s">
+        <v>111</v>
       </c>
     </row>
     <row r="36">
@@ -1713,7 +2047,10 @@
         <v>18</v>
       </c>
       <c r="B36" s="40" t="n">
-        <v>0.486</v>
+        <v>0.435</v>
+      </c>
+      <c r="C36" s="151" t="s">
+        <v>111</v>
       </c>
     </row>
     <row r="37">
@@ -1721,7 +2058,10 @@
         <v>0</v>
       </c>
       <c r="B37" s="41" t="s">
-        <v>89</v>
+        <v>78</v>
+      </c>
+      <c r="C37" s="152" t="s">
+        <v>111</v>
       </c>
     </row>
     <row r="38">
@@ -1729,7 +2069,10 @@
         <v>19</v>
       </c>
       <c r="B38" s="42" t="n">
-        <v>0.761</v>
+        <v>0.733</v>
+      </c>
+      <c r="C38" s="153" t="s">
+        <v>111</v>
       </c>
     </row>
     <row r="39">
@@ -1737,7 +2080,10 @@
         <v>0</v>
       </c>
       <c r="B39" s="43" t="s">
-        <v>93</v>
+        <v>79</v>
+      </c>
+      <c r="C39" s="154" t="s">
+        <v>111</v>
       </c>
     </row>
     <row r="40">
@@ -1745,7 +2091,10 @@
         <v>20</v>
       </c>
       <c r="B40" s="44" t="n">
-        <v>0.899</v>
+        <v>0.796</v>
+      </c>
+      <c r="C40" s="155" t="s">
+        <v>111</v>
       </c>
     </row>
     <row r="41">
@@ -1753,7 +2102,10 @@
         <v>0</v>
       </c>
       <c r="B41" s="45" t="s">
-        <v>94</v>
+        <v>80</v>
+      </c>
+      <c r="C41" s="156" t="s">
+        <v>111</v>
       </c>
     </row>
     <row r="42">
@@ -1761,7 +2113,10 @@
         <v>21</v>
       </c>
       <c r="B42" s="46" t="n">
-        <v>0.244</v>
+        <v>0.227</v>
+      </c>
+      <c r="C42" s="157" t="s">
+        <v>111</v>
       </c>
     </row>
     <row r="43">
@@ -1769,7 +2124,10 @@
         <v>0</v>
       </c>
       <c r="B43" s="47" t="s">
-        <v>95</v>
+        <v>81</v>
+      </c>
+      <c r="C43" s="158" t="s">
+        <v>111</v>
       </c>
     </row>
     <row r="44">
@@ -1777,7 +2135,10 @@
         <v>22</v>
       </c>
       <c r="B44" s="48" t="n">
-        <v>0.121</v>
+        <v>0.115</v>
+      </c>
+      <c r="C44" s="159" t="s">
+        <v>111</v>
       </c>
     </row>
     <row r="45">
@@ -1785,7 +2146,10 @@
         <v>0</v>
       </c>
       <c r="B45" s="49" t="s">
-        <v>96</v>
+        <v>82</v>
+      </c>
+      <c r="C45" s="160" t="s">
+        <v>111</v>
       </c>
     </row>
     <row r="46">
@@ -1793,7 +2157,10 @@
         <v>23</v>
       </c>
       <c r="B46" s="50" t="n">
-        <v>0.585</v>
+        <v>0.504</v>
+      </c>
+      <c r="C46" s="161" t="s">
+        <v>111</v>
       </c>
     </row>
     <row r="47">
@@ -1801,7 +2168,10 @@
         <v>0</v>
       </c>
       <c r="B47" s="51" t="s">
-        <v>97</v>
+        <v>83</v>
+      </c>
+      <c r="C47" s="162" t="s">
+        <v>111</v>
       </c>
     </row>
     <row r="48">
@@ -1809,7 +2179,10 @@
         <v>24</v>
       </c>
       <c r="B48" s="52" t="n">
-        <v>0.985</v>
+        <v>0.919</v>
+      </c>
+      <c r="C48" s="163" t="s">
+        <v>111</v>
       </c>
     </row>
     <row r="49">
@@ -1817,7 +2190,10 @@
         <v>0</v>
       </c>
       <c r="B49" s="53" t="s">
-        <v>97</v>
+        <v>83</v>
+      </c>
+      <c r="C49" s="164" t="s">
+        <v>111</v>
       </c>
     </row>
     <row r="50">
@@ -1825,7 +2201,10 @@
         <v>25</v>
       </c>
       <c r="B50" s="54" t="n">
-        <v>0.55</v>
+        <v>0.386</v>
+      </c>
+      <c r="C50" s="165" t="s">
+        <v>111</v>
       </c>
     </row>
     <row r="51">
@@ -1833,7 +2212,10 @@
         <v>0</v>
       </c>
       <c r="B51" s="55" t="s">
-        <v>98</v>
+        <v>84</v>
+      </c>
+      <c r="C51" s="166" t="s">
+        <v>111</v>
       </c>
     </row>
     <row r="52">
@@ -1841,7 +2223,10 @@
         <v>26</v>
       </c>
       <c r="B52" s="56" t="n">
-        <v>0.211</v>
+        <v>-0.082</v>
+      </c>
+      <c r="C52" s="167" t="s">
+        <v>111</v>
       </c>
     </row>
     <row r="53">
@@ -1849,7 +2234,10 @@
         <v>0</v>
       </c>
       <c r="B53" s="57" t="s">
-        <v>99</v>
+        <v>85</v>
+      </c>
+      <c r="C53" s="168" t="s">
+        <v>111</v>
       </c>
     </row>
     <row r="54">
@@ -1857,7 +2245,10 @@
         <v>27</v>
       </c>
       <c r="B54" s="58" t="n">
-        <v>-0.273</v>
+        <v>-0.16</v>
+      </c>
+      <c r="C54" s="169" t="s">
+        <v>111</v>
       </c>
     </row>
     <row r="55">
@@ -1865,7 +2256,10 @@
         <v>0</v>
       </c>
       <c r="B55" s="59" t="s">
-        <v>100</v>
+        <v>86</v>
+      </c>
+      <c r="C55" s="170" t="s">
+        <v>111</v>
       </c>
     </row>
     <row r="56">
@@ -1873,7 +2267,10 @@
         <v>28</v>
       </c>
       <c r="B56" s="60" t="n">
-        <v>0.417</v>
+        <v>0.3</v>
+      </c>
+      <c r="C56" s="171" t="s">
+        <v>111</v>
       </c>
     </row>
     <row r="57">
@@ -1881,7 +2278,10 @@
         <v>0</v>
       </c>
       <c r="B57" s="61" t="s">
-        <v>101</v>
+        <v>87</v>
+      </c>
+      <c r="C57" s="172" t="s">
+        <v>111</v>
       </c>
     </row>
     <row r="58">
@@ -1889,7 +2289,10 @@
         <v>29</v>
       </c>
       <c r="B58" s="62" t="n">
-        <v>0.18</v>
+        <v>-0.136</v>
+      </c>
+      <c r="C58" s="173" t="s">
+        <v>111</v>
       </c>
     </row>
     <row r="59">
@@ -1897,7 +2300,10 @@
         <v>0</v>
       </c>
       <c r="B59" s="63" t="s">
-        <v>102</v>
+        <v>81</v>
+      </c>
+      <c r="C59" s="174" t="s">
+        <v>111</v>
       </c>
     </row>
     <row r="60">
@@ -1905,7 +2311,10 @@
         <v>30</v>
       </c>
       <c r="B60" s="64" t="n">
-        <v>0.563</v>
+        <v>0.399</v>
+      </c>
+      <c r="C60" s="175" t="s">
+        <v>111</v>
       </c>
     </row>
     <row r="61">
@@ -1913,7 +2322,10 @@
         <v>0</v>
       </c>
       <c r="B61" s="65" t="s">
-        <v>103</v>
+        <v>81</v>
+      </c>
+      <c r="C61" s="176" t="s">
+        <v>111</v>
       </c>
     </row>
     <row r="62">
@@ -1921,7 +2333,10 @@
         <v>31</v>
       </c>
       <c r="B62" s="66" t="n">
-        <v>0.66</v>
+        <v>0.22</v>
+      </c>
+      <c r="C62" s="177" t="s">
+        <v>111</v>
       </c>
     </row>
     <row r="63">
@@ -1929,7 +2344,10 @@
         <v>0</v>
       </c>
       <c r="B63" s="67" t="s">
-        <v>91</v>
+        <v>88</v>
+      </c>
+      <c r="C63" s="178" t="s">
+        <v>111</v>
       </c>
     </row>
     <row r="64">
@@ -1937,7 +2355,10 @@
         <v>32</v>
       </c>
       <c r="B64" s="68" t="n">
-        <v>0.18</v>
+        <v>-0.099</v>
+      </c>
+      <c r="C64" s="179" t="s">
+        <v>111</v>
       </c>
     </row>
     <row r="65">
@@ -1945,7 +2366,10 @@
         <v>0</v>
       </c>
       <c r="B65" s="69" t="s">
-        <v>104</v>
+        <v>89</v>
+      </c>
+      <c r="C65" s="180" t="s">
+        <v>111</v>
       </c>
     </row>
     <row r="66">
@@ -1953,7 +2377,10 @@
         <v>33</v>
       </c>
       <c r="B66" s="70" t="n">
-        <v>0.241</v>
+        <v>-0.04</v>
+      </c>
+      <c r="C66" s="181" t="s">
+        <v>111</v>
       </c>
     </row>
     <row r="67">
@@ -1961,7 +2388,10 @@
         <v>0</v>
       </c>
       <c r="B67" s="71" t="s">
-        <v>105</v>
+        <v>90</v>
+      </c>
+      <c r="C67" s="182" t="s">
+        <v>111</v>
       </c>
     </row>
     <row r="68">
@@ -1969,7 +2399,10 @@
         <v>34</v>
       </c>
       <c r="B68" s="72" t="n">
-        <v>1.318</v>
+        <v>1.102</v>
+      </c>
+      <c r="C68" s="183" t="s">
+        <v>111</v>
       </c>
     </row>
     <row r="69">
@@ -1977,7 +2410,10 @@
         <v>0</v>
       </c>
       <c r="B69" s="73" t="s">
-        <v>106</v>
+        <v>91</v>
+      </c>
+      <c r="C69" s="184" t="s">
+        <v>111</v>
       </c>
     </row>
     <row r="70">
@@ -1985,7 +2421,10 @@
         <v>35</v>
       </c>
       <c r="B70" s="74" t="n">
-        <v>0.888</v>
+        <v>0.636</v>
+      </c>
+      <c r="C70" s="185" t="s">
+        <v>111</v>
       </c>
     </row>
     <row r="71">
@@ -1993,7 +2432,10 @@
         <v>0</v>
       </c>
       <c r="B71" s="75" t="s">
-        <v>107</v>
+        <v>92</v>
+      </c>
+      <c r="C71" s="186" t="s">
+        <v>111</v>
       </c>
     </row>
     <row r="72">
@@ -2001,7 +2443,10 @@
         <v>36</v>
       </c>
       <c r="B72" s="76" t="n">
-        <v>1.181</v>
+        <v>0.551</v>
+      </c>
+      <c r="C72" s="187" t="s">
+        <v>111</v>
       </c>
     </row>
     <row r="73">
@@ -2009,7 +2454,10 @@
         <v>0</v>
       </c>
       <c r="B73" s="77" t="s">
-        <v>108</v>
+        <v>93</v>
+      </c>
+      <c r="C73" s="188" t="s">
+        <v>111</v>
       </c>
     </row>
     <row r="74">
@@ -2017,7 +2465,10 @@
         <v>37</v>
       </c>
       <c r="B74" s="78" t="n">
-        <v>-0.469</v>
+        <v>-0.731</v>
+      </c>
+      <c r="C74" s="189" t="s">
+        <v>111</v>
       </c>
     </row>
     <row r="75">
@@ -2025,7 +2476,10 @@
         <v>0</v>
       </c>
       <c r="B75" s="79" t="s">
-        <v>108</v>
+        <v>94</v>
+      </c>
+      <c r="C75" s="190" t="s">
+        <v>111</v>
       </c>
     </row>
     <row r="76">
@@ -2033,7 +2487,10 @@
         <v>38</v>
       </c>
       <c r="B76" s="80" t="n">
-        <v>1.296</v>
+        <v>0.993</v>
+      </c>
+      <c r="C76" s="191" t="s">
+        <v>111</v>
       </c>
     </row>
     <row r="77">
@@ -2041,7 +2498,10 @@
         <v>0</v>
       </c>
       <c r="B77" s="81" t="s">
-        <v>109</v>
+        <v>95</v>
+      </c>
+      <c r="C77" s="192" t="s">
+        <v>111</v>
       </c>
     </row>
     <row r="78">
@@ -2049,7 +2509,10 @@
         <v>39</v>
       </c>
       <c r="B78" s="82" t="n">
-        <v>-1.289</v>
+        <v>-0.721</v>
+      </c>
+      <c r="C78" s="193" t="s">
+        <v>111</v>
       </c>
     </row>
     <row r="79">
@@ -2057,7 +2520,10 @@
         <v>0</v>
       </c>
       <c r="B79" s="83" t="s">
-        <v>110</v>
+        <v>96</v>
+      </c>
+      <c r="C79" s="194" t="s">
+        <v>111</v>
       </c>
     </row>
     <row r="80">
@@ -2065,7 +2531,10 @@
         <v>40</v>
       </c>
       <c r="B80" s="84" t="n">
-        <v>-0.383</v>
+        <v>-0.671</v>
+      </c>
+      <c r="C80" s="195" t="s">
+        <v>111</v>
       </c>
     </row>
     <row r="81">
@@ -2073,6 +2542,9 @@
         <v>0</v>
       </c>
       <c r="B81" s="85" t="s">
+        <v>97</v>
+      </c>
+      <c r="C81" s="196" t="s">
         <v>111</v>
       </c>
     </row>
@@ -2081,7 +2553,10 @@
         <v>41</v>
       </c>
       <c r="B82" s="86" t="n">
-        <v>-0.162</v>
+        <v>0.378</v>
+      </c>
+      <c r="C82" s="197" t="s">
+        <v>111</v>
       </c>
     </row>
     <row r="83">
@@ -2089,7 +2564,10 @@
         <v>0</v>
       </c>
       <c r="B83" s="87" t="s">
-        <v>112</v>
+        <v>98</v>
+      </c>
+      <c r="C83" s="198" t="s">
+        <v>111</v>
       </c>
     </row>
     <row r="84">
@@ -2097,7 +2575,10 @@
         <v>42</v>
       </c>
       <c r="B84" s="88" t="n">
-        <v>0.527</v>
+        <v>-0.185</v>
+      </c>
+      <c r="C84" s="199" t="s">
+        <v>111</v>
       </c>
     </row>
     <row r="85">
@@ -2105,7 +2586,10 @@
         <v>0</v>
       </c>
       <c r="B85" s="89" t="s">
-        <v>113</v>
+        <v>99</v>
+      </c>
+      <c r="C85" s="200" t="s">
+        <v>111</v>
       </c>
     </row>
     <row r="86">
@@ -2113,7 +2597,10 @@
         <v>43</v>
       </c>
       <c r="B86" s="90" t="n">
-        <v>1.856</v>
+        <v>0.145</v>
+      </c>
+      <c r="C86" s="201" t="s">
+        <v>111</v>
       </c>
     </row>
     <row r="87">
@@ -2121,7 +2608,10 @@
         <v>0</v>
       </c>
       <c r="B87" s="91" t="s">
-        <v>114</v>
+        <v>100</v>
+      </c>
+      <c r="C87" s="202" t="s">
+        <v>111</v>
       </c>
     </row>
     <row r="88">
@@ -2129,7 +2619,10 @@
         <v>44</v>
       </c>
       <c r="B88" s="92" t="n">
-        <v>0.342</v>
+        <v>-0.579</v>
+      </c>
+      <c r="C88" s="203" t="s">
+        <v>111</v>
       </c>
     </row>
     <row r="89">
@@ -2137,7 +2630,10 @@
         <v>0</v>
       </c>
       <c r="B89" s="93" t="s">
-        <v>115</v>
+        <v>101</v>
+      </c>
+      <c r="C89" s="204" t="s">
+        <v>111</v>
       </c>
     </row>
     <row r="90">
@@ -2145,7 +2641,10 @@
         <v>45</v>
       </c>
       <c r="B90" s="94" t="n">
-        <v>0.868</v>
+        <v>-0.004</v>
+      </c>
+      <c r="C90" s="205" t="s">
+        <v>111</v>
       </c>
     </row>
     <row r="91">
@@ -2153,7 +2652,10 @@
         <v>0</v>
       </c>
       <c r="B91" s="95" t="s">
-        <v>116</v>
+        <v>102</v>
+      </c>
+      <c r="C91" s="206" t="s">
+        <v>111</v>
       </c>
     </row>
     <row r="92">
@@ -2161,7 +2663,10 @@
         <v>46</v>
       </c>
       <c r="B92" s="96" t="n">
-        <v>0.151</v>
+        <v>-0.767</v>
+      </c>
+      <c r="C92" s="207" t="s">
+        <v>111</v>
       </c>
     </row>
     <row r="93">
@@ -2169,7 +2674,10 @@
         <v>0</v>
       </c>
       <c r="B93" s="97" t="s">
-        <v>117</v>
+        <v>103</v>
+      </c>
+      <c r="C93" s="208" t="s">
+        <v>111</v>
       </c>
     </row>
     <row r="94">
@@ -2177,7 +2685,10 @@
         <v>47</v>
       </c>
       <c r="B94" s="98" t="n">
-        <v>-0.694</v>
+        <v>0.63</v>
+      </c>
+      <c r="C94" s="209" t="s">
+        <v>111</v>
       </c>
     </row>
     <row r="95">
@@ -2185,7 +2696,10 @@
         <v>0</v>
       </c>
       <c r="B95" s="99" t="s">
-        <v>118</v>
+        <v>104</v>
+      </c>
+      <c r="C95" s="210" t="s">
+        <v>111</v>
       </c>
     </row>
     <row r="96">
@@ -2193,7 +2707,10 @@
         <v>48</v>
       </c>
       <c r="B96" s="100" t="n">
-        <v>0.796</v>
+        <v>0.555</v>
+      </c>
+      <c r="C96" s="211" t="s">
+        <v>111</v>
       </c>
     </row>
     <row r="97">
@@ -2201,7 +2718,10 @@
         <v>0</v>
       </c>
       <c r="B97" s="101" t="s">
-        <v>119</v>
+        <v>75</v>
+      </c>
+      <c r="C97" s="212" t="s">
+        <v>111</v>
       </c>
     </row>
     <row r="98">
@@ -2209,7 +2729,10 @@
         <v>49</v>
       </c>
       <c r="B98" s="102" t="n">
-        <v>-0.124</v>
+        <v>-0.859</v>
+      </c>
+      <c r="C98" s="213" t="s">
+        <v>111</v>
       </c>
     </row>
     <row r="99">
@@ -2217,7 +2740,10 @@
         <v>0</v>
       </c>
       <c r="B99" s="103" t="s">
-        <v>120</v>
+        <v>105</v>
+      </c>
+      <c r="C99" s="214" t="s">
+        <v>111</v>
       </c>
     </row>
     <row r="100">
@@ -2225,7 +2751,10 @@
         <v>50</v>
       </c>
       <c r="B100" s="104" t="n">
-        <v>-1.396</v>
+        <v>-1.821</v>
+      </c>
+      <c r="C100" s="215" t="s">
+        <v>111</v>
       </c>
     </row>
     <row r="101">
@@ -2233,7 +2762,10 @@
         <v>0</v>
       </c>
       <c r="B101" s="105" t="s">
-        <v>121</v>
+        <v>106</v>
+      </c>
+      <c r="C101" s="216" t="s">
+        <v>111</v>
       </c>
     </row>
     <row r="102">
@@ -2241,7 +2773,10 @@
         <v>51</v>
       </c>
       <c r="B102" s="106" t="n">
-        <v>-1.11</v>
+        <v>1.354</v>
+      </c>
+      <c r="C102" s="217" t="s">
+        <v>111</v>
       </c>
     </row>
     <row r="103">
@@ -2249,7 +2784,10 @@
         <v>0</v>
       </c>
       <c r="B103" s="107" t="s">
-        <v>122</v>
+        <v>107</v>
+      </c>
+      <c r="C103" s="218" t="s">
+        <v>111</v>
       </c>
     </row>
     <row r="104">
@@ -2257,7 +2795,10 @@
         <v>52</v>
       </c>
       <c r="B104" s="108" t="n">
-        <v>0.171</v>
+        <v>-0.469</v>
+      </c>
+      <c r="C104" s="219" t="s">
+        <v>111</v>
       </c>
     </row>
     <row r="105">
@@ -2265,7 +2806,10 @@
         <v>0</v>
       </c>
       <c r="B105" s="109" t="s">
-        <v>123</v>
+        <v>108</v>
+      </c>
+      <c r="C105" s="220" t="s">
+        <v>111</v>
       </c>
     </row>
     <row r="106">
@@ -2273,7 +2817,10 @@
         <v>53</v>
       </c>
       <c r="B106" s="110" t="n">
-        <v>0.481</v>
+        <v>-0.921</v>
+      </c>
+      <c r="C106" s="221" t="s">
+        <v>111</v>
       </c>
     </row>
     <row r="107">
@@ -2281,7 +2828,10 @@
         <v>0</v>
       </c>
       <c r="B107" s="111" t="s">
-        <v>124</v>
+        <v>109</v>
+      </c>
+      <c r="C107" s="222" t="s">
+        <v>111</v>
       </c>
     </row>
     <row r="108">
@@ -2289,306 +2839,66 @@
         <v>54</v>
       </c>
       <c r="B108" s="112" t="n">
-        <v>0.123</v>
+        <v>542</v>
+      </c>
+      <c r="C108" s="223" t="s">
+        <v>111</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B109" s="113" t="s">
-        <v>125</v>
+        <v>55</v>
+      </c>
+      <c r="B109" s="113" t="n">
+        <v>0.148</v>
+      </c>
+      <c r="C109" s="224" t="n">
+        <v>0.148</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" s="2" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B110" s="114" t="n">
-        <v>-0.503</v>
+        <v>0.057</v>
+      </c>
+      <c r="C110" s="225" t="n">
+        <v>0.057</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B111" s="115" t="s">
-        <v>126</v>
+        <v>57</v>
+      </c>
+      <c r="B111" s="115" t="n">
+        <v>1.631</v>
+      </c>
+      <c r="C111" s="226" t="n">
+        <v>1.631</v>
       </c>
     </row>
     <row r="112">
-      <c r="A112" s="2" t="s">
-        <v>56</v>
+      <c r="A112" s="3" t="s">
+        <v>58</v>
       </c>
       <c r="B112" s="116" t="n">
-        <v>1.012</v>
+        <v>0.005</v>
+      </c>
+      <c r="C112" s="227" t="n">
+        <v>0.005</v>
       </c>
     </row>
     <row r="113">
-      <c r="A113" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B113" s="117" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="114">
-      <c r="A114" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="B114" s="118" t="n">
-        <v>1.11</v>
-      </c>
-    </row>
-    <row r="115">
-      <c r="A115" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B115" s="119" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="116">
-      <c r="A116" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="B116" s="120" t="n">
-        <v>0.935</v>
-      </c>
-    </row>
-    <row r="117">
-      <c r="A117" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B117" s="121" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="118">
-      <c r="A118" s="2" t="s">
+      <c r="A113" s="4" t="s">
         <v>59</v>
       </c>
-      <c r="B118" s="122" t="n">
-        <v>0.498</v>
-      </c>
-    </row>
-    <row r="119">
-      <c r="A119" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B119" s="123" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="120">
-      <c r="A120" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="B120" s="124" t="n">
-        <v>-1.124</v>
-      </c>
-    </row>
-    <row r="121">
-      <c r="A121" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B121" s="125" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="122">
-      <c r="A122" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="B122" s="126" t="n">
-        <v>0.412</v>
-      </c>
-    </row>
-    <row r="123">
-      <c r="A123" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B123" s="127" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="124">
-      <c r="A124" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="B124" s="128" t="n">
-        <v>-0.073</v>
-      </c>
-    </row>
-    <row r="125">
-      <c r="A125" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B125" s="129" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="126">
-      <c r="A126" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="B126" s="130" t="n">
-        <v>0.907</v>
-      </c>
-    </row>
-    <row r="127">
-      <c r="A127" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B127" s="131" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="128">
-      <c r="A128" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="B128" s="132" t="n">
-        <v>0.917</v>
-      </c>
-    </row>
-    <row r="129">
-      <c r="A129" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B129" s="133" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="130">
-      <c r="A130" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="B130" s="134" t="n">
-        <v>0.036</v>
-      </c>
-    </row>
-    <row r="131">
-      <c r="A131" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B131" s="135" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="132">
-      <c r="A132" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="B132" s="136" t="n">
-        <v>-0.336</v>
-      </c>
-    </row>
-    <row r="133">
-      <c r="A133" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B133" s="137" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="134">
-      <c r="A134" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="B134" s="138" t="n">
-        <v>-0.803</v>
-      </c>
-    </row>
-    <row r="135">
-      <c r="A135" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B135" s="139" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="136">
-      <c r="A136" s="2" t="s">
-        <v>68</v>
-      </c>
-      <c r="B136" s="140" t="n">
-        <v>0.063</v>
-      </c>
-    </row>
-    <row r="137">
-      <c r="A137" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B137" s="141" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="138">
-      <c r="A138" s="2" t="s">
-        <v>69</v>
-      </c>
-      <c r="B138" s="142" t="n">
-        <v>0.243</v>
-      </c>
-    </row>
-    <row r="139">
-      <c r="A139" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B139" s="143" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="140">
-      <c r="A140" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="B140" s="144" t="n">
-        <v>542</v>
-      </c>
-    </row>
-    <row r="141">
-      <c r="A141" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="B141" s="145" t="n">
-        <v>0.185</v>
-      </c>
-    </row>
-    <row r="142">
-      <c r="A142" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="B142" s="146" t="n">
-        <v>0.068</v>
-      </c>
-    </row>
-    <row r="143">
-      <c r="A143" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="B143" s="147" t="n">
-        <v>1.58</v>
-      </c>
-    </row>
-    <row r="144">
-      <c r="A144" s="3" t="s">
-        <v>74</v>
-      </c>
-      <c r="B144" s="148" t="n">
-        <v>0.004</v>
-      </c>
-    </row>
-    <row r="145">
-      <c r="A145" s="4" t="s">
-        <v>75</v>
-      </c>
-      <c r="B145" s="4"/>
+      <c r="B113" s="4"/>
+      <c r="C113" s="4"/>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="A145:B145"/>
+    <mergeCell ref="A113:C113"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
